--- a/data/trans_bre/P13_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.6396152676309483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.3262851150989919</v>
+        <v>-0.3262851150989933</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2074126226790187</v>
@@ -649,7 +649,7 @@
         <v>0.1779567876982425</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.07382782419167136</v>
+        <v>-0.07382782419167168</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.167804265087318</v>
+        <v>-2.197784511386999</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.706452713697802</v>
+        <v>-2.559316734043808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.230859966028091</v>
+        <v>-1.989858725112644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.79955499985215</v>
+        <v>-2.585781054294572</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4206603110085491</v>
+        <v>-0.4148893648183643</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.543980384459487</v>
+        <v>-0.5197151400035378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4838742317082169</v>
+        <v>-0.4660878368832954</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4635051950484707</v>
+        <v>-0.450638220743909</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.039432076337144</v>
+        <v>4.220686730493568</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.90439962243128</v>
+        <v>2.961249307124074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.550967125296882</v>
+        <v>4.041892886785142</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.871494121242777</v>
+        <v>1.877058292920866</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.2920189862561</v>
+        <v>1.488808518425322</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.161970678052111</v>
+        <v>1.217928819656569</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.538302299142761</v>
+        <v>1.672915170047674</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6213782983351211</v>
+        <v>0.6249328799263418</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>-0.2840506107620558</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3337936420171898</v>
+        <v>0.33379364201719</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8213318462802174</v>
+        <v>-0.8264917073049525</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.246881714066018</v>
+        <v>-1.547016519451378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.182512184768727</v>
+        <v>-3.009076888254629</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.068636367619855</v>
+        <v>-1.169787037060998</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4621502268529457</v>
+        <v>-0.5201777996445075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2709471226605643</v>
+        <v>-0.2983845438530334</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7776805767118605</v>
+        <v>-0.7693355252953347</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2582091117918744</v>
+        <v>-0.2830539268655323</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.623665136959738</v>
+        <v>3.609689192259327</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.878685838562672</v>
+        <v>5.607621184779175</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.339584742936219</v>
+        <v>1.340233126012505</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.336747480367365</v>
+        <v>3.430966064509486</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>9.754912097882674</v>
+        <v>8.650722476603757</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.106953054547901</v>
+        <v>1.990222758634038</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9014629790335771</v>
+        <v>0.9300826838577413</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.447726096366899</v>
+        <v>1.522424783707784</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>1.211802069683711</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9578319573924645</v>
+        <v>0.9578319573924649</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.791428649292639</v>
+        <v>2.030817042888172</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2707601697557995</v>
+        <v>-0.2114872776104536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6450472920893249</v>
+        <v>0.7878669216745876</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9689858598407951</v>
+        <v>1.213734504365319</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5996489670152099</v>
+        <v>0.46174910299785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08507346797805074</v>
+        <v>-0.04211059803244201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01219282050612978</v>
+        <v>0.1326504202960129</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1350511375047183</v>
+        <v>0.1457710318759258</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.97060181551484</v>
+        <v>10.8826904768674</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.849181259664062</v>
+        <v>8.252931066754055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.49399592895661</v>
+        <v>10.51685964395921</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.612753215701611</v>
+        <v>9.686739367164417</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>10.05624075175439</v>
+        <v>9.247720923882488</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.920455851526788</v>
+        <v>1.954203163892852</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.312525710013644</v>
+        <v>3.528768598355257</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.382768806117868</v>
+        <v>2.305309063891679</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6212004656786807</v>
+        <v>-0.4842262773874182</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1173398456626929</v>
+        <v>0.2518879082078019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8836953865368903</v>
+        <v>0.9185671044587751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.462147790917699</v>
+        <v>-2.59306650140028</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1511596924052407</v>
+        <v>-0.1148241945718192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01964078412874393</v>
+        <v>0.02912622222175481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2066165842781667</v>
+        <v>0.2236191032678096</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3115603890634147</v>
+        <v>-0.3364448305820744</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.502650877271182</v>
+        <v>3.483506098198906</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.822850862988655</v>
+        <v>4.97255196750498</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.916477754184871</v>
+        <v>4.956746920717866</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.645152033957403</v>
+        <v>1.444158274673402</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.174984241402662</v>
+        <v>1.19909915873285</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.152908361592031</v>
+        <v>1.1430171753995</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.864802378354274</v>
+        <v>1.91056985045085</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3163666212746389</v>
+        <v>0.2723212527810188</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.597976017739902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.543153267525152</v>
+        <v>3.543153267525151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1617430235899218</v>
@@ -1049,7 +1049,7 @@
         <v>0.331157722400635</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5435474653062824</v>
+        <v>0.5435474653062822</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.741275284941686</v>
+        <v>-3.906168509588984</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.407013815096467</v>
+        <v>5.839437960638128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6623029352373785</v>
+        <v>-0.823088234947962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.053644974165933</v>
+        <v>0.9165403888666752</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5715221125445192</v>
+        <v>-0.5656594487540575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.039863809171389</v>
+        <v>1.075245698399027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1238664630218463</v>
+        <v>-0.1694554522613037</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1165936387006749</v>
+        <v>0.1007090386249372</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.905193486710582</v>
+        <v>1.732045178871487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.50929239182946</v>
+        <v>11.70915133602746</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.14380545865725</v>
+        <v>4.12514338718769</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.94828878166853</v>
+        <v>6.239333043380754</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6760280531966387</v>
+        <v>0.5993205396675495</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.058123785508833</v>
+        <v>4.825073161443644</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.147944099335625</v>
+        <v>1.125850023981569</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.202067912938429</v>
+        <v>1.28871940025226</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6038803568834281</v>
+        <v>0.4383968169851483</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.660031269968178</v>
+        <v>2.853574053814684</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.235877922892188</v>
+        <v>3.146688309742669</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.240266592753924</v>
+        <v>4.381868700232603</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05705699505345494</v>
+        <v>0.06463574751305147</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2914599305862164</v>
+        <v>0.3248513297158482</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.32250821411286</v>
+        <v>1.495976711261924</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.7745553452079881</v>
+        <v>0.9882027485684253</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1192,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.952817443437925</v>
+        <v>4.796371916346817</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.477699845045327</v>
+        <v>9.574973597295845</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.532278243399765</v>
+        <v>6.498557257659914</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.038851356757105</v>
+        <v>8.795852730573619</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.31650546278696</v>
+        <v>4.353832351657726</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.540909227061562</v>
+        <v>4.113168861071461</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>11.15995132194688</v>
+        <v>11.73907808976035</v>
       </c>
     </row>
     <row r="22">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6497600492236821</v>
+        <v>0.71113777509472</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.41953760180628</v>
+        <v>3.418605568902725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.056632780059162</v>
+        <v>1.024077154695793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.097000410641284</v>
+        <v>1.075801431479266</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.172967282313569</v>
+        <v>0.1936388458333142</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6627348073678434</v>
+        <v>0.6846592744710439</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2683563853599305</v>
+        <v>0.2549959154217503</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1892231807018381</v>
+        <v>0.1701592993985217</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.57090718738305</v>
+        <v>2.655789546414053</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.877018409843567</v>
+        <v>5.881243964228533</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.164603613807958</v>
+        <v>3.107095199923441</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.222761137142626</v>
+        <v>3.162206022090126</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9314301508495759</v>
+        <v>0.9449609555280781</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.423502099831642</v>
+        <v>1.46094721189618</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.067173014029094</v>
+        <v>1.033436119146074</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6941313007846446</v>
+        <v>0.659806791202518</v>
       </c>
     </row>
     <row r="25">
